--- a/results/mp/deberta/corona/confidence/126/stop-words-masking-0.35/avg_0.002_scores.xlsx
+++ b/results/mp/deberta/corona/confidence/126/stop-words-masking-0.35/avg_0.002_scores.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="236" uniqueCount="223">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="235" uniqueCount="223">
   <si>
     <t>anchor score</t>
   </si>
@@ -70,157 +70,157 @@
     <t>low</t>
   </si>
   <si>
+    <t>19</t>
+  </si>
+  <si>
+    <t>co</t>
+  </si>
+  <si>
+    <t>corona</t>
+  </si>
+  <si>
+    <t>negative</t>
+  </si>
+  <si>
+    <t>beauty</t>
+  </si>
+  <si>
+    <t>interesting</t>
+  </si>
+  <si>
+    <t>happy</t>
+  </si>
+  <si>
+    <t>amazing</t>
+  </si>
+  <si>
+    <t>love</t>
+  </si>
+  <si>
+    <t>puzzle</t>
+  </si>
+  <si>
+    <t>best</t>
+  </si>
+  <si>
+    <t>friend</t>
+  </si>
+  <si>
+    <t>thank</t>
+  </si>
+  <si>
+    <t>creative</t>
+  </si>
+  <si>
+    <t>strong</t>
+  </si>
+  <si>
+    <t>great</t>
+  </si>
+  <si>
+    <t>free</t>
+  </si>
+  <si>
+    <t>special</t>
+  </si>
+  <si>
+    <t>heroes</t>
+  </si>
+  <si>
+    <t>healthy</t>
+  </si>
+  <si>
+    <t>thanks</t>
+  </si>
+  <si>
+    <t>friends</t>
+  </si>
+  <si>
+    <t>better</t>
+  </si>
+  <si>
+    <t>good</t>
+  </si>
+  <si>
+    <t>dear</t>
+  </si>
+  <si>
+    <t>ensure</t>
+  </si>
+  <si>
+    <t>positive</t>
+  </si>
+  <si>
+    <t>contest</t>
+  </si>
+  <si>
+    <t>confidence</t>
+  </si>
+  <si>
+    <t>support</t>
+  </si>
+  <si>
+    <t>join</t>
+  </si>
+  <si>
+    <t>please</t>
+  </si>
+  <si>
+    <t>safe</t>
+  </si>
+  <si>
+    <t>nice</t>
+  </si>
+  <si>
+    <t>well</t>
+  </si>
+  <si>
+    <t>fresh</t>
+  </si>
+  <si>
+    <t>safety</t>
+  </si>
+  <si>
+    <t>share</t>
+  </si>
+  <si>
+    <t>wu</t>
+  </si>
+  <si>
+    <t>credit</t>
+  </si>
+  <si>
+    <t>hand</t>
+  </si>
+  <si>
+    <t>providing</t>
+  </si>
+  <si>
+    <t>hope</t>
+  </si>
+  <si>
+    <t>community</t>
+  </si>
+  <si>
+    <t>clean</t>
+  </si>
+  <si>
+    <t>solution</t>
+  </si>
+  <si>
+    <t>funny</t>
+  </si>
+  <si>
+    <t>boost</t>
+  </si>
+  <si>
+    <t>gt</t>
+  </si>
+  <si>
+    <t>sure</t>
+  </si>
+  <si>
     <t>like</t>
-  </si>
-  <si>
-    <t>19</t>
-  </si>
-  <si>
-    <t>co</t>
-  </si>
-  <si>
-    <t>corona</t>
-  </si>
-  <si>
-    <t>negative</t>
-  </si>
-  <si>
-    <t>beauty</t>
-  </si>
-  <si>
-    <t>interesting</t>
-  </si>
-  <si>
-    <t>happy</t>
-  </si>
-  <si>
-    <t>amazing</t>
-  </si>
-  <si>
-    <t>love</t>
-  </si>
-  <si>
-    <t>puzzle</t>
-  </si>
-  <si>
-    <t>best</t>
-  </si>
-  <si>
-    <t>friend</t>
-  </si>
-  <si>
-    <t>thank</t>
-  </si>
-  <si>
-    <t>creative</t>
-  </si>
-  <si>
-    <t>strong</t>
-  </si>
-  <si>
-    <t>great</t>
-  </si>
-  <si>
-    <t>free</t>
-  </si>
-  <si>
-    <t>special</t>
-  </si>
-  <si>
-    <t>heroes</t>
-  </si>
-  <si>
-    <t>healthy</t>
-  </si>
-  <si>
-    <t>thanks</t>
-  </si>
-  <si>
-    <t>friends</t>
-  </si>
-  <si>
-    <t>better</t>
-  </si>
-  <si>
-    <t>good</t>
-  </si>
-  <si>
-    <t>dear</t>
-  </si>
-  <si>
-    <t>ensure</t>
-  </si>
-  <si>
-    <t>positive</t>
-  </si>
-  <si>
-    <t>contest</t>
-  </si>
-  <si>
-    <t>please</t>
-  </si>
-  <si>
-    <t>confidence</t>
-  </si>
-  <si>
-    <t>support</t>
-  </si>
-  <si>
-    <t>join</t>
-  </si>
-  <si>
-    <t>safe</t>
-  </si>
-  <si>
-    <t>nice</t>
-  </si>
-  <si>
-    <t>well</t>
-  </si>
-  <si>
-    <t>fresh</t>
-  </si>
-  <si>
-    <t>safety</t>
-  </si>
-  <si>
-    <t>share</t>
-  </si>
-  <si>
-    <t>wu</t>
-  </si>
-  <si>
-    <t>credit</t>
-  </si>
-  <si>
-    <t>hand</t>
-  </si>
-  <si>
-    <t>providing</t>
-  </si>
-  <si>
-    <t>hope</t>
-  </si>
-  <si>
-    <t>community</t>
-  </si>
-  <si>
-    <t>clean</t>
-  </si>
-  <si>
-    <t>solution</t>
-  </si>
-  <si>
-    <t>funny</t>
-  </si>
-  <si>
-    <t>boost</t>
-  </si>
-  <si>
-    <t>gt</t>
-  </si>
-  <si>
-    <t>sure</t>
   </si>
   <si>
     <t>help</t>
@@ -1048,10 +1048,10 @@
   <sheetData>
     <row r="1" spans="1:17">
       <c r="A1" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="J1" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
     </row>
     <row r="2" spans="1:17">
@@ -1130,7 +1130,7 @@
         <v>2</v>
       </c>
       <c r="J3" s="1" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="K3">
         <v>1</v>
@@ -1180,7 +1180,7 @@
         <v>6</v>
       </c>
       <c r="J4" s="1" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="K4">
         <v>0.967741935483871</v>
@@ -1230,7 +1230,7 @@
         <v>11</v>
       </c>
       <c r="J5" s="1" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="K5">
         <v>0.9615384615384616</v>
@@ -1280,7 +1280,7 @@
         <v>104</v>
       </c>
       <c r="J6" s="1" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="K6">
         <v>0.9444444444444444</v>
@@ -1330,7 +1330,7 @@
         <v>12</v>
       </c>
       <c r="J7" s="1" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="K7">
         <v>0.9333333333333333</v>
@@ -1380,7 +1380,7 @@
         <v>45</v>
       </c>
       <c r="J8" s="1" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="K8">
         <v>0.9333333333333333</v>
@@ -1430,7 +1430,7 @@
         <v>360</v>
       </c>
       <c r="J9" s="1" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="K9">
         <v>0.9152542372881356</v>
@@ -1480,7 +1480,7 @@
         <v>36</v>
       </c>
       <c r="J10" s="1" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="K10">
         <v>0.8947368421052632</v>
@@ -1530,7 +1530,7 @@
         <v>64</v>
       </c>
       <c r="J11" s="1" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="K11">
         <v>0.8740157480314961</v>
@@ -1580,7 +1580,7 @@
         <v>128</v>
       </c>
       <c r="J12" s="1" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="K12">
         <v>0.8666666666666667</v>
@@ -1609,28 +1609,28 @@
         <v>18</v>
       </c>
       <c r="B13">
-        <v>0.08609271523178808</v>
+        <v>0.0122306348281887</v>
       </c>
       <c r="C13">
-        <v>13</v>
+        <v>21</v>
       </c>
       <c r="D13">
-        <v>202</v>
+        <v>447</v>
       </c>
       <c r="E13">
-        <v>0.9399999999999999</v>
+        <v>0.95</v>
       </c>
       <c r="F13">
-        <v>0.06000000000000005</v>
+        <v>0.05000000000000004</v>
       </c>
       <c r="G13" t="b">
         <v>1</v>
       </c>
       <c r="H13">
-        <v>138</v>
+        <v>1696</v>
       </c>
       <c r="J13" s="1" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="K13">
         <v>0.8636363636363636</v>
@@ -1659,13 +1659,13 @@
         <v>19</v>
       </c>
       <c r="B14">
-        <v>0.0122306348281887</v>
+        <v>0.01210165389269867</v>
       </c>
       <c r="C14">
-        <v>21</v>
+        <v>30</v>
       </c>
       <c r="D14">
-        <v>447</v>
+        <v>658</v>
       </c>
       <c r="E14">
         <v>0.95</v>
@@ -1677,10 +1677,10 @@
         <v>1</v>
       </c>
       <c r="H14">
-        <v>1696</v>
+        <v>2449</v>
       </c>
       <c r="J14" s="1" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="K14">
         <v>0.8545454545454545</v>
@@ -1709,28 +1709,28 @@
         <v>20</v>
       </c>
       <c r="B15">
-        <v>0.01210165389269867</v>
+        <v>0.006881564650488953</v>
       </c>
       <c r="C15">
-        <v>30</v>
+        <v>19</v>
       </c>
       <c r="D15">
-        <v>658</v>
+        <v>459</v>
       </c>
       <c r="E15">
-        <v>0.95</v>
+        <v>0.96</v>
       </c>
       <c r="F15">
-        <v>0.05000000000000004</v>
+        <v>0.04000000000000004</v>
       </c>
       <c r="G15" t="b">
         <v>1</v>
       </c>
       <c r="H15">
-        <v>2449</v>
+        <v>2742</v>
       </c>
       <c r="J15" s="1" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="K15">
         <v>0.8461538461538461</v>
@@ -1755,32 +1755,8 @@
       </c>
     </row>
     <row r="16" spans="1:17">
-      <c r="A16" s="1" t="s">
-        <v>21</v>
-      </c>
-      <c r="B16">
-        <v>0.006881564650488953</v>
-      </c>
-      <c r="C16">
-        <v>19</v>
-      </c>
-      <c r="D16">
-        <v>459</v>
-      </c>
-      <c r="E16">
-        <v>0.96</v>
-      </c>
-      <c r="F16">
-        <v>0.04000000000000004</v>
-      </c>
-      <c r="G16" t="b">
-        <v>1</v>
-      </c>
-      <c r="H16">
-        <v>2742</v>
-      </c>
       <c r="J16" s="1" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="K16">
         <v>0.8333333333333334</v>
@@ -1806,7 +1782,7 @@
     </row>
     <row r="17" spans="10:17">
       <c r="J17" s="1" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="K17">
         <v>0.8297872340425532</v>
@@ -1832,7 +1808,7 @@
     </row>
     <row r="18" spans="10:17">
       <c r="J18" s="1" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="K18">
         <v>0.8148148148148148</v>
@@ -1858,7 +1834,7 @@
     </row>
     <row r="19" spans="10:17">
       <c r="J19" s="1" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="K19">
         <v>0.8125</v>
@@ -1884,7 +1860,7 @@
     </row>
     <row r="20" spans="10:17">
       <c r="J20" s="1" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="K20">
         <v>0.8076923076923077</v>
@@ -1910,7 +1886,7 @@
     </row>
     <row r="21" spans="10:17">
       <c r="J21" s="1" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="K21">
         <v>0.7936507936507936</v>
@@ -1936,7 +1912,7 @@
     </row>
     <row r="22" spans="10:17">
       <c r="J22" s="1" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="K22">
         <v>0.7658227848101266</v>
@@ -1962,7 +1938,7 @@
     </row>
     <row r="23" spans="10:17">
       <c r="J23" s="1" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="K23">
         <v>0.75</v>
@@ -1988,7 +1964,7 @@
     </row>
     <row r="24" spans="10:17">
       <c r="J24" s="1" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="K24">
         <v>0.75</v>
@@ -2014,7 +1990,7 @@
     </row>
     <row r="25" spans="10:17">
       <c r="J25" s="1" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="K25">
         <v>0.7368421052631579</v>
@@ -2040,7 +2016,7 @@
     </row>
     <row r="26" spans="10:17">
       <c r="J26" s="1" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="K26">
         <v>0.7272727272727273</v>
@@ -2066,42 +2042,42 @@
     </row>
     <row r="27" spans="10:17">
       <c r="J27" s="1" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="K27">
-        <v>0.7086956521739131</v>
+        <v>0.7058823529411765</v>
       </c>
       <c r="L27">
-        <v>163</v>
+        <v>24</v>
       </c>
       <c r="M27">
-        <v>172</v>
+        <v>26</v>
       </c>
       <c r="N27">
-        <v>0.95</v>
+        <v>0.92</v>
       </c>
       <c r="O27">
-        <v>0.05000000000000004</v>
+        <v>0.07999999999999996</v>
       </c>
       <c r="P27" t="b">
         <v>1</v>
       </c>
       <c r="Q27">
-        <v>67</v>
+        <v>10</v>
       </c>
     </row>
     <row r="28" spans="10:17">
       <c r="J28" s="1" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="K28">
-        <v>0.7058823529411765</v>
+        <v>0.6899999999999999</v>
       </c>
       <c r="L28">
-        <v>24</v>
+        <v>69</v>
       </c>
       <c r="M28">
-        <v>26</v>
+        <v>75</v>
       </c>
       <c r="N28">
         <v>0.92</v>
@@ -2113,64 +2089,64 @@
         <v>1</v>
       </c>
       <c r="Q28">
-        <v>10</v>
+        <v>31</v>
       </c>
     </row>
     <row r="29" spans="10:17">
       <c r="J29" s="1" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="K29">
-        <v>0.6899999999999999</v>
+        <v>0.6829268292682927</v>
       </c>
       <c r="L29">
-        <v>69</v>
+        <v>28</v>
       </c>
       <c r="M29">
-        <v>75</v>
+        <v>30</v>
       </c>
       <c r="N29">
-        <v>0.92</v>
+        <v>0.93</v>
       </c>
       <c r="O29">
-        <v>0.07999999999999996</v>
+        <v>0.06999999999999995</v>
       </c>
       <c r="P29" t="b">
         <v>1</v>
       </c>
       <c r="Q29">
-        <v>31</v>
+        <v>13</v>
       </c>
     </row>
     <row r="30" spans="10:17">
       <c r="J30" s="1" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="K30">
-        <v>0.6829268292682927</v>
+        <v>0.6820083682008368</v>
       </c>
       <c r="L30">
-        <v>28</v>
+        <v>163</v>
       </c>
       <c r="M30">
-        <v>30</v>
+        <v>163</v>
       </c>
       <c r="N30">
-        <v>0.93</v>
+        <v>1</v>
       </c>
       <c r="O30">
-        <v>0.06999999999999995</v>
+        <v>0</v>
       </c>
       <c r="P30" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q30">
-        <v>13</v>
+        <v>76</v>
       </c>
     </row>
     <row r="31" spans="10:17">
       <c r="J31" s="1" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="K31">
         <v>0.6808510638297872</v>
@@ -2196,7 +2172,7 @@
     </row>
     <row r="32" spans="10:17">
       <c r="J32" s="1" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="K32">
         <v>0.68</v>
@@ -2222,7 +2198,7 @@
     </row>
     <row r="33" spans="10:17">
       <c r="J33" s="1" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="K33">
         <v>0.6777777777777778</v>
@@ -2248,7 +2224,7 @@
     </row>
     <row r="34" spans="10:17">
       <c r="J34" s="1" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="K34">
         <v>0.6739130434782609</v>
@@ -2274,7 +2250,7 @@
     </row>
     <row r="35" spans="10:17">
       <c r="J35" s="1" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="K35">
         <v>0.6666666666666666</v>
@@ -2300,7 +2276,7 @@
     </row>
     <row r="36" spans="10:17">
       <c r="J36" s="1" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="K36">
         <v>0.6176470588235294</v>
@@ -2326,7 +2302,7 @@
     </row>
     <row r="37" spans="10:17">
       <c r="J37" s="1" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="K37">
         <v>0.6153846153846154</v>
@@ -2352,7 +2328,7 @@
     </row>
     <row r="38" spans="10:17">
       <c r="J38" s="1" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="K38">
         <v>0.6129032258064516</v>
@@ -2378,7 +2354,7 @@
     </row>
     <row r="39" spans="10:17">
       <c r="J39" s="1" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="K39">
         <v>0.5931758530183727</v>
@@ -2404,7 +2380,7 @@
     </row>
     <row r="40" spans="10:17">
       <c r="J40" s="1" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="K40">
         <v>0.5909090909090909</v>
@@ -2430,7 +2406,7 @@
     </row>
     <row r="41" spans="10:17">
       <c r="J41" s="1" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="K41">
         <v>0.5873015873015873</v>
@@ -2456,7 +2432,7 @@
     </row>
     <row r="42" spans="10:17">
       <c r="J42" s="1" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="K42">
         <v>0.5869565217391305</v>
@@ -2482,7 +2458,7 @@
     </row>
     <row r="43" spans="10:17">
       <c r="J43" s="1" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="K43">
         <v>0.5806451612903226</v>
@@ -2508,16 +2484,16 @@
     </row>
     <row r="44" spans="10:17">
       <c r="J44" s="1" t="s">
+        <v>63</v>
+      </c>
+      <c r="K44">
+        <v>0.5666666666666667</v>
+      </c>
+      <c r="L44">
+        <v>17</v>
+      </c>
+      <c r="M44">
         <v>18</v>
-      </c>
-      <c r="K44">
-        <v>0.5779816513761468</v>
-      </c>
-      <c r="L44">
-        <v>189</v>
-      </c>
-      <c r="M44">
-        <v>202</v>
       </c>
       <c r="N44">
         <v>0.9399999999999999</v>
@@ -2529,7 +2505,7 @@
         <v>1</v>
       </c>
       <c r="Q44">
-        <v>138</v>
+        <v>13</v>
       </c>
     </row>
     <row r="45" spans="10:17">
@@ -2537,25 +2513,25 @@
         <v>64</v>
       </c>
       <c r="K45">
-        <v>0.5666666666666667</v>
+        <v>0.5652173913043478</v>
       </c>
       <c r="L45">
-        <v>17</v>
+        <v>13</v>
       </c>
       <c r="M45">
-        <v>18</v>
+        <v>13</v>
       </c>
       <c r="N45">
-        <v>0.9399999999999999</v>
+        <v>1</v>
       </c>
       <c r="O45">
-        <v>0.06000000000000005</v>
+        <v>0</v>
       </c>
       <c r="P45" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q45">
-        <v>13</v>
+        <v>10</v>
       </c>
     </row>
     <row r="46" spans="10:17">
@@ -2589,25 +2565,25 @@
         <v>66</v>
       </c>
       <c r="K47">
-        <v>0.5652173913043478</v>
+        <v>0.5641025641025641</v>
       </c>
       <c r="L47">
-        <v>13</v>
+        <v>22</v>
       </c>
       <c r="M47">
-        <v>13</v>
+        <v>23</v>
       </c>
       <c r="N47">
-        <v>1</v>
+        <v>0.96</v>
       </c>
       <c r="O47">
-        <v>0</v>
+        <v>0.04000000000000004</v>
       </c>
       <c r="P47" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Q47">
-        <v>10</v>
+        <v>17</v>
       </c>
     </row>
     <row r="48" spans="10:17">
@@ -2615,25 +2591,25 @@
         <v>67</v>
       </c>
       <c r="K48">
-        <v>0.5641025641025641</v>
+        <v>0.5625</v>
       </c>
       <c r="L48">
-        <v>22</v>
+        <v>36</v>
       </c>
       <c r="M48">
-        <v>23</v>
+        <v>36</v>
       </c>
       <c r="N48">
-        <v>0.96</v>
+        <v>1</v>
       </c>
       <c r="O48">
-        <v>0.04000000000000004</v>
+        <v>0</v>
       </c>
       <c r="P48" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q48">
-        <v>17</v>
+        <v>28</v>
       </c>
     </row>
     <row r="49" spans="10:17">
@@ -2641,13 +2617,13 @@
         <v>68</v>
       </c>
       <c r="K49">
-        <v>0.5625</v>
+        <v>0.5558823529411765</v>
       </c>
       <c r="L49">
-        <v>36</v>
+        <v>189</v>
       </c>
       <c r="M49">
-        <v>36</v>
+        <v>189</v>
       </c>
       <c r="N49">
         <v>1</v>
@@ -2659,7 +2635,7 @@
         <v>0</v>
       </c>
       <c r="Q49">
-        <v>28</v>
+        <v>151</v>
       </c>
     </row>
     <row r="50" spans="10:17">
@@ -5524,7 +5500,7 @@
     </row>
     <row r="160" spans="10:17">
       <c r="J160" s="1" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="K160">
         <v>0.2040948976275593</v>
@@ -5576,7 +5552,7 @@
     </row>
     <row r="162" spans="10:17">
       <c r="J162" s="1" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="K162">
         <v>0.2007540056550424</v>
@@ -6278,7 +6254,7 @@
     </row>
     <row r="189" spans="10:17">
       <c r="J189" s="1" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="K189">
         <v>0.1382778126964173</v>
